--- a/data/trans_dic/POLIMEDICACION-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIMEDICACION-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,04%</t>
+          <t>11,99%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>8,13%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>14,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>13,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>13,5%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,33; 12,15</t>
+          <t>9,24; 15,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,87; 15,89</t>
+          <t>8,81; 15,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,93; 11,29</t>
+          <t>5,96; 10,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,29; 23,22</t>
+          <t>12,08; 17,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>24,4; 29,58</t>
+          <t>23,53; 30,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,48; 12,98</t>
+          <t>14,98; 21,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,41; 17,49</t>
+          <t>11,23; 15,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,79; 23,73</t>
+          <t>18,41; 23,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,71; 11,67</t>
+          <t>11,64; 15,55</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>4,42%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 4,4</t>
+          <t>6,26; 8,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,2; 4,81</t>
+          <t>1,57; 3,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 7,48</t>
+          <t>2,11; 3,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,89; 8,4</t>
+          <t>5,9; 8,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,15; 7,07</t>
+          <t>3,53; 7,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,3; 7,02</t>
+          <t>5,04; 7,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 5,96</t>
+          <t>6,32; 7,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 5,73</t>
+          <t>2,95; 5,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,65; 6,96</t>
+          <t>3,79; 5,16</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>0,9%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,73</t>
+          <t>1,27; 2,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,77</t>
+          <t>1,69; 4,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,84</t>
+          <t>0,46; 1,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,24</t>
+          <t>0,95; 2,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,9</t>
+          <t>3,49; 6,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,22</t>
+          <t>1,25; 3,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,06</t>
+          <t>1,23; 2,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 4,43</t>
+          <t>2,86; 4,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,16</t>
+          <t>0,98; 2,32</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>6,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,13%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 5,01</t>
+          <t>5,87; 7,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 5,82</t>
+          <t>2,49; 4,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 6,79</t>
+          <t>2,55; 3,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,95; 9,94</t>
+          <t>6,04; 7,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,22; 11,23</t>
+          <t>6,79; 10,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 6,71</t>
+          <t>6,14; 7,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,94; 7,26</t>
+          <t>6,15; 7,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 8,49</t>
+          <t>5,0; 7,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,56; 6,49</t>
+          <t>4,54; 5,67</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumir &gt;4 medicamentos de la lista completa de medicamentos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10703</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>27372</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17552</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>18369</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>104953</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>48512</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>29072</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>132325</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>66064</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8137; 13834</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20122; 36456</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12859; 23237</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15430; 22523</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>92981; 122121</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>40984; 57667</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>24233; 33407</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>114739; 149475</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>56976; 76136</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>32681</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>38616</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>23837</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>29791</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>77660</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>52577</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>62472</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>116277</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>76414</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>28406; 38268</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>22068; 53611</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>18168; 32908</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>25488; 35006</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>48955; 100578</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>43721; 63519</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>55917; 69106</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>82562; 145113</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>65567; 89218</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3007</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12573</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3420</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>2874</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21728</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>5881</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>34301</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12068</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1932; 4534</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7783; 20755</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1725; 6871</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1847; 4589</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>15466; 29817</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5200; 14731</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4243; 8113</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>25808; 44542</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7787; 18482</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>547</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>46391</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>78561</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>44809</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>51033</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>204342</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>109737</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>97424</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>282903</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>154546</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>40700; 53301</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>52261; 97387</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>37075; 55518</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>45537; 57793</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>150980; 241144</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>95671; 123484</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>89003; 106149</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>216250; 326156</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>136880; 171050</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/POLIMEDICACION-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIMEDICACION-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumir &gt;4 medicamentos de la lista completa de medicamentos</t>
+          <t>Polimedicación (5 o más medicamentos)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumir &gt;4 medicamentos de la lista completa de medicamentos</t>
+          <t>Polimedicación (5 o más medicamentos)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/POLIMEDICACION-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIMEDICACION-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos)</t>
+          <t>Polimedicación (5 o más medicamentos) (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Polimedicación (5 o más medicamentos)</t>
+          <t>Polimedicación (5 o más medicamentos) (tasa de respuesta: 99,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/POLIMEDICACION-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIMEDICACION-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,15%</t>
+          <t>11,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>13,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>13,47%</t>
+          <t>12,55%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,24; 15,71</t>
+          <t>8,54; 14,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,81; 15,97</t>
+          <t>8,69; 16,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,08; 17,63</t>
+          <t>11,19; 16,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,53; 30,91</t>
+          <t>23,29; 30,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,23; 15,48</t>
+          <t>10,85; 14,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,41; 23,98</t>
+          <t>18,76; 24,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,21%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,26; 8,44</t>
+          <t>5,51; 7,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 3,8</t>
+          <t>1,54; 3,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,9; 8,11</t>
+          <t>5,43; 7,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 7,26</t>
+          <t>3,34; 7,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,32; 7,81</t>
+          <t>5,7; 7,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,95; 5,19</t>
+          <t>2,94; 5,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,99</t>
+          <t>1,3; 3,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,51</t>
+          <t>1,66; 4,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,36</t>
+          <t>0,86; 2,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,49; 6,72</t>
+          <t>3,33; 6,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 2,35</t>
+          <t>1,25; 2,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,86; 4,93</t>
+          <t>2,9; 5,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 7,69</t>
+          <t>5,21; 6,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,64</t>
+          <t>2,5; 4,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,04; 7,67</t>
+          <t>5,39; 6,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,79; 10,84</t>
+          <t>6,74; 10,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 7,34</t>
+          <t>5,48; 6,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,0; 7,55</t>
+          <t>5,3; 7,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10703</t>
+          <t>9107</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18369</t>
+          <t>16501</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29072</t>
+          <t>25608</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8137; 13834</t>
+          <t>7049; 11746</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20122; 36456</t>
+          <t>19840; 36993</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15430; 22523</t>
+          <t>13590; 19817</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>92981; 122121</t>
+          <t>92029; 120589</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24233; 33407</t>
+          <t>22133; 29563</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>114739; 149475</t>
+          <t>116955; 152258</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32681</t>
+          <t>29625</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>29791</t>
+          <t>28219</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>62472</t>
+          <t>57844</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28406; 38268</t>
+          <t>25428; 34570</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22068; 53611</t>
+          <t>21638; 53497</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25488; 35006</t>
+          <t>24120; 32672</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>48955; 100578</t>
+          <t>46288; 100409</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>55917; 69106</t>
+          <t>51622; 64198</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>82562; 145113</t>
+          <t>82276; 143861</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3007</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2874</t>
+          <t>3237</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5881</t>
+          <t>6876</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1932; 4534</t>
+          <t>2282; 5608</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7783; 20755</t>
+          <t>7649; 19942</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1847; 4589</t>
+          <t>1956; 5070</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>15466; 29817</t>
+          <t>14762; 29926</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>4243; 8113</t>
+          <t>5046; 9566</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>25808; 44542</t>
+          <t>26231; 46299</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>46391</t>
+          <t>42371</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>51033</t>
+          <t>47957</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97424</t>
+          <t>90328</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>40700; 53301</t>
+          <t>37471; 48405</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>52261; 97387</t>
+          <t>52446; 98668</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>45537; 57793</t>
+          <t>42809; 53907</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>150980; 241144</t>
+          <t>149941; 238147</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>89003; 106149</t>
+          <t>82883; 98701</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>216250; 326156</t>
+          <t>228974; 326169</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/POLIMEDICACION-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/POLIMEDICACION-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>11,71%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>11,03%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>11,99%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>8,13%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>25,55%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17,73%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>13,59%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>26,56%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>17,73%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>20,42%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>13,5%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>12,55%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>21,23%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>13,5%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>8,46; 15,79</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5,96; 10,77</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>8,54; 14,23</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>8,69; 16,2</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>5,96; 10,77</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>22,44; 29,03</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14,98; 21,07</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>11,19; 16,32</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>23,29; 30,52</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>14,98; 21,07</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>17,97; 23,11</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11,64; 15,55</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>10,85; 14,49</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>18,76; 24,42</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>11,64; 15,55</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3,12%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>6,42%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,74%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,77%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>6,35%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,6%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>4,97%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4,42%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>6,38%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>4,16%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>2,26; 4,02</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,11; 3,82</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>5,51; 7,49</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,54; 3,8</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,11; 3,82</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>5,85; 8,15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5,04; 7,32</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>5,43; 7,35</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,34; 7,25</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>5,04; 7,32</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>4,26; 5,63</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3,79; 5,16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>5,7; 7,09</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>2,94; 5,15</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>3,79; 5,16</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,9%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>2,07%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,73%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,9%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,07%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,42%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,9%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>2,07%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>3,88%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>1,7%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,8%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,64; 4,16</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,46; 1,82</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1,3; 3,19</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 4,34</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 1,82</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>3,59; 7,11</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1,25; 3,53</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,86; 2,22</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 6,75</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>1,25; 3,53</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>3,01; 5,17</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 2,32</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>1,25; 2,37</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>2,9; 5,13</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,98; 2,32</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,08%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>5,89%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,75%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,08%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>10,14%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>7,04%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>6,04%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,19%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,04%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>7,21%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5,13%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>5,97%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,55%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>5,13%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3,36; 5,02</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 3,81</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>5,21; 6,72</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,5; 4,7</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,55; 3,81</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>9,17; 11,28</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6,14; 7,92</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>5,39; 6,79</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>6,74; 10,71</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>6,14; 7,92</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>6,6; 7,92</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4,54; 5,67</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>5,48; 6,52</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>5,3; 7,55</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>4,54; 5,67</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1216,47 +1216,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>58</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>105</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>163</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>226</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>187</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>29908</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17552</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>9107</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>27372</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>17552</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>110547</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>48512</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>16501</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>104953</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>48512</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>140455</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>66064</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>25608</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>132325</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>66064</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>21610; 40321</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12859; 23237</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>7049; 11746</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>19840; 36993</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>12859; 23237</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>97054; 125589</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>40984; 57667</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>13590; 19817</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>92029; 120589</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>40984; 57667</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>123603; 158960</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>56976; 76136</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>22133; 29563</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>116955; 152258</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>56976; 76136</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>173</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>170</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>343</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>192</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>172</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>40123</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>23837</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>29625</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>38616</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>23837</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>87081</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>52577</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>28219</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>77660</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>52577</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>127204</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>76414</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>57844</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>116277</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>76414</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>29111; 51708</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>18168; 32908</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>25428; 34570</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>21638; 53497</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>18168; 32908</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>74338; 103551</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>43721; 63519</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>24120; 32672</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>46288; 100409</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>43721; 63519</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>108933; 143971</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>65567; 89218</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>51622; 64198</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>82276; 143861</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>65567; 89218</t>
         </is>
       </c>
     </row>
@@ -1542,47 +1542,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>19</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>41</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>28</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>13651</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3420</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>3639</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>12573</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3420</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>25406</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>8648</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>3237</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>21728</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>8648</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>39057</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12068</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>6876</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>34301</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>12068</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>8341; 21209</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1725; 6871</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>2282; 5608</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7649; 19942</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1725; 6871</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>17788; 35254</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5200; 14731</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>1956; 5070</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>14762; 29926</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5200; 14731</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>30291; 51977</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7787; 18482</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>5046; 9566</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>26231; 46299</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>7787; 18482</t>
         </is>
       </c>
     </row>
@@ -1705,47 +1705,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>253</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>294</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>365</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>262</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>547</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>474</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>387</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>83682</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>44809</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>42371</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>78561</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>44809</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>223034</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>109737</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>47957</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>204342</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>109737</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>306716</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>154546</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>90328</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>282903</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>154546</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>68999; 103110</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>37075; 55518</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>37471; 48405</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>52446; 98668</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>37075; 55518</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>201623; 248107</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>95671; 123484</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>42809; 53907</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>149941; 238147</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>95671; 123484</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>280615; 336746</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>136880; 171050</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>82883; 98701</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>228974; 326169</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>136880; 171050</t>
         </is>
       </c>
     </row>
